--- a/wwwroot/Uploads/Student.xlsx
+++ b/wwwroot/Uploads/Student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA74FF0-8581-4FC7-A7C8-B25DADACB327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EAC7F-BFB9-41D4-BEA5-7B0AAC3D87FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14427" xr2:uid="{B35B1A48-58E7-4F30-AEFA-1C3C8539223E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="136">
   <si>
     <t>Arely Moss</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>00311112501199</t>
+  </si>
+  <si>
+    <t>MM</t>
   </si>
 </sst>
 </file>
@@ -811,7 +814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0728CE-02A3-4EC3-A227-3BEABC7B64F9}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76:F100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1019,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,7 +1044,7 @@
         <v>55</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1059,7 +1064,7 @@
         <v>55</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,7 +1084,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,7 +1104,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1119,7 +1124,7 @@
         <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1139,7 +1144,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1164,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1179,7 +1184,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,7 +1204,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,7 +1224,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,7 +1244,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,7 +1264,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,7 +1284,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1299,7 +1304,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,7 +1324,7 @@
         <v>55</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,7 +1344,7 @@
         <v>55</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,7 +1364,7 @@
         <v>55</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,7 +1384,7 @@
         <v>55</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,7 +1404,7 @@
         <v>55</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,7 +1424,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,7 +1444,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,7 +1464,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,7 +1484,7 @@
         <v>55</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,7 +1644,7 @@
         <v>55</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,7 +1664,7 @@
         <v>55</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,7 +1684,7 @@
         <v>55</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,7 +1704,7 @@
         <v>55</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,7 +1724,7 @@
         <v>55</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1744,7 @@
         <v>55</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,7 +1764,7 @@
         <v>55</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,7 +1784,7 @@
         <v>55</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,7 +1804,7 @@
         <v>55</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,7 +1824,7 @@
         <v>55</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,7 +1844,7 @@
         <v>55</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,7 +1864,7 @@
         <v>55</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,7 +1884,7 @@
         <v>55</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,7 +1904,7 @@
         <v>55</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,7 +1924,7 @@
         <v>55</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1939,7 +1944,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,7 +1964,7 @@
         <v>55</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,7 +1984,7 @@
         <v>55</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1999,7 +2004,7 @@
         <v>55</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,7 +2024,7 @@
         <v>55</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,7 +2044,7 @@
         <v>55</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,7 +2064,7 @@
         <v>55</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2079,7 +2084,7 @@
         <v>55</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,7 +2104,7 @@
         <v>55</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,7 +2304,7 @@
         <v>55</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2319,7 +2324,7 @@
         <v>55</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2339,7 +2344,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,7 +2364,7 @@
         <v>55</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2379,7 +2384,7 @@
         <v>55</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,7 +2404,7 @@
         <v>55</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2419,7 +2424,7 @@
         <v>55</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2439,7 +2444,7 @@
         <v>55</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,7 +2464,7 @@
         <v>55</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2479,7 +2484,7 @@
         <v>55</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2499,7 +2504,7 @@
         <v>55</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2519,7 +2524,7 @@
         <v>55</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2539,7 +2544,7 @@
         <v>55</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2559,7 +2564,7 @@
         <v>55</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2579,7 +2584,7 @@
         <v>55</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2599,7 +2604,7 @@
         <v>55</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2619,7 +2624,7 @@
         <v>55</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2639,7 +2644,7 @@
         <v>55</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2659,7 +2664,7 @@
         <v>55</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2679,7 +2684,7 @@
         <v>55</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,7 +2704,7 @@
         <v>55</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,7 +2724,7 @@
         <v>55</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,7 +2744,7 @@
         <v>55</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2759,7 +2764,7 @@
         <v>55</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2779,7 +2784,7 @@
         <v>55</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2799,7 +2804,7 @@
         <v>55</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2819,7 +2824,7 @@
         <v>55</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
